--- a/data/trans_camb/P16A11-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,21</t>
+          <t>0,66; 10,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,24</t>
+          <t>-2,76; 5,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 13,85</t>
+          <t>5,05; 13,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 4,3</t>
+          <t>-5,48; 4,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 4,47</t>
+          <t>-5,03; 4,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,19</t>
+          <t>-2,53; 5,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,39</t>
+          <t>-0,52; 6,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,11</t>
+          <t>-2,29; 4,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,62</t>
+          <t>2,45; 8,55</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 117,33</t>
+          <t>4,52; 113,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 69,42</t>
+          <t>-21,94; 62,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,43; 156,41</t>
+          <t>36,59; 158,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 55,2</t>
+          <t>-45,28; 58,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 60,03</t>
+          <t>-42,06; 60,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 72,33</t>
+          <t>-20,9; 70,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 71,75</t>
+          <t>-4,63; 72,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 47,64</t>
+          <t>-20,85; 45,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,28; 97,42</t>
+          <t>18,56; 95,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,93</t>
+          <t>-4,6; 5,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 6,73</t>
+          <t>-3,81; 6,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 12,37</t>
+          <t>2,48; 12,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 8,73</t>
+          <t>0,12; 8,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 6,0</t>
+          <t>-2,25; 5,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 10,21</t>
+          <t>2,57; 10,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,39</t>
+          <t>-1,02; 5,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,71</t>
+          <t>-1,69; 4,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 10,79</t>
+          <t>4,38; 10,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 45,68</t>
+          <t>-31,01; 48,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,25; 64,18</t>
+          <t>-24,91; 58,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 118,67</t>
+          <t>15,65; 130,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 207,4</t>
+          <t>-1,85; 217,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 146,42</t>
+          <t>-31,96; 147,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,14; 263,69</t>
+          <t>30,84; 265,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 68,95</t>
+          <t>-9,46; 69,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 59,39</t>
+          <t>-15,86; 61,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,06; 138,39</t>
+          <t>38,46; 135,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,87</t>
+          <t>5,2; 13,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 8,42</t>
+          <t>0,1; 8,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 10,5</t>
+          <t>-7,23; 10,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 16,09</t>
+          <t>0,78; 15,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 15,91</t>
+          <t>-2,08; 15,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 15,62</t>
+          <t>1,31; 16,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,76</t>
+          <t>5,69; 13,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,99</t>
+          <t>1,12; 8,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 10,43</t>
+          <t>-6,41; 10,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,81; 138,66</t>
+          <t>37,6; 137,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 84,77</t>
+          <t>1,31; 86,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 94,73</t>
+          <t>-56,42; 96,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 156,89</t>
+          <t>3,78; 156,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 160,84</t>
+          <t>-15,4; 146,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,63; 161,9</t>
+          <t>6,39; 160,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,81; 120,64</t>
+          <t>38,15; 126,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 86,63</t>
+          <t>7,25; 81,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 89,23</t>
+          <t>-48,46; 92,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,24</t>
+          <t>-0,78; 5,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,65</t>
+          <t>-1,49; 4,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,1</t>
+          <t>1,67; 8,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 0,23</t>
+          <t>-6,48; 0,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 0,57</t>
+          <t>-6,76; 0,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 52,05</t>
+          <t>1,09; 50,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,2</t>
+          <t>-2,17; 2,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,75</t>
+          <t>-2,96; 1,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 31,64</t>
+          <t>2,8; 35,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 35,66</t>
+          <t>-4,88; 35,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 31,82</t>
+          <t>-8,49; 29,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 55,17</t>
+          <t>9,4; 56,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 2,12</t>
+          <t>-41,49; 3,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 5,62</t>
+          <t>-43,28; 4,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,1; 427,21</t>
+          <t>7,69; 420,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 15,44</t>
+          <t>-13,18; 14,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 12,31</t>
+          <t>-17,61; 10,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,37; 210,86</t>
+          <t>17,86; 228,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,49; 11,33</t>
+          <t>1,36; 11,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,25</t>
+          <t>0,69; 9,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,0; 12,28</t>
+          <t>3,15; 12,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,87; 14,65</t>
+          <t>6,47; 14,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,38; 9,17</t>
+          <t>0,5; 9,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,88; 14,74</t>
+          <t>2,55; 14,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,77</t>
+          <t>5,51; 11,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,62</t>
+          <t>1,51; 7,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 12,28</t>
+          <t>5,0; 12,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,66; 117,38</t>
+          <t>8,65; 118,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1,3; 97,94</t>
+          <t>4,4; 105,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,58; 132,49</t>
+          <t>19,22; 132,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>33,74; 120,87</t>
+          <t>37,68; 121,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,73; 75,58</t>
+          <t>3,34; 75,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,63; 118,62</t>
+          <t>20,21; 116,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>35,67; 100,27</t>
+          <t>36,51; 100,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,52; 64,94</t>
+          <t>9,87; 64,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,57; 100,6</t>
+          <t>33,25; 108,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,01</t>
+          <t>-2,03; 1,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,11</t>
+          <t>-3,11; 0,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,55</t>
+          <t>-2,42; 1,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,53; 10,85</t>
+          <t>3,28; 10,82</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,86</t>
+          <t>-0,45; 6,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,13; 8,22</t>
+          <t>1,42; 8,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 8,71</t>
+          <t>2,62; 8,98</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,8</t>
+          <t>-1,47; 4,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 5,66</t>
+          <t>-0,55; 5,53</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-83,42; 444,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 410,22</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-88,9; 276,07</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13,65; 47,71</t>
+          <t>12,18; 45,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 30,3</t>
+          <t>-1,94; 28,83</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,25; 35,91</t>
+          <t>5,26; 37,72</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,43; 46,93</t>
+          <t>12,6; 47,97</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 25,45</t>
+          <t>-7,14; 25,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 30,41</t>
+          <t>-2,5; 29,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,72</t>
+          <t>2,21; 5,83</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,95</t>
+          <t>0,66; 4,02</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,41</t>
+          <t>1,04; 7,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,26</t>
+          <t>2,47; 6,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,35</t>
+          <t>-0,79; 2,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,12; 21,55</t>
+          <t>3,23; 22,6</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,37</t>
+          <t>2,86; 5,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,97</t>
+          <t>0,44; 2,9</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,96</t>
+          <t>3,75; 15,48</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>17,21; 47,99</t>
+          <t>16,34; 49,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2,84; 33,42</t>
+          <t>4,73; 33,83</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>7,02; 60,76</t>
+          <t>8,27; 61,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>13,71; 39,82</t>
+          <t>14,34; 39,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 20,89</t>
+          <t>-4,58; 18,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>18,12; 132,94</t>
+          <t>19,06; 137,39</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,83; 38,05</t>
+          <t>18,87; 37,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2,4; 20,9</t>
+          <t>2,94; 20,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>25,8; 103,99</t>
+          <t>25,48; 108,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A11-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
